--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -94,85 +88,85 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
@@ -547,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,16 +623,16 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7945205479452054</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,37 +802,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="K7">
-        <v>0.8484848484848485</v>
-      </c>
-      <c r="L7">
-        <v>28</v>
-      </c>
       <c r="M7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5932203389830508</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5714285714285714</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C9">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5368217054263565</v>
+        <v>0.5406976744186046</v>
       </c>
       <c r="C10">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D10">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8198433420365535</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5294117647058824</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.79375</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5234899328859061</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1152,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3134920634920635</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C14">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1176,31 +1170,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>28</v>
-      </c>
-      <c r="M14">
-        <v>28</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3111111111111111</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,37 +1252,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1662198391420912</v>
+        <v>0.01388440426218922</v>
       </c>
       <c r="C16">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>311</v>
+        <v>3054</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7619047619047619</v>
+        <v>0.76875</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,128 +1302,80 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1133333333333333</v>
+        <v>0.01218940459446789</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>266</v>
+        <v>2107</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L18">
+        <v>45</v>
+      </c>
+      <c r="M18">
+        <v>45</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.7560975609756098</v>
-      </c>
-      <c r="L17">
-        <v>62</v>
-      </c>
-      <c r="M17">
-        <v>62</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.01617599482368166</v>
-      </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>66</v>
-      </c>
-      <c r="E18">
-        <v>0.24</v>
-      </c>
-      <c r="F18">
-        <v>0.76</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>3041</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7547169811320755</v>
-      </c>
-      <c r="L18">
-        <v>80</v>
-      </c>
-      <c r="M18">
-        <v>80</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.01267605633802817</v>
-      </c>
-      <c r="C19">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>0.33</v>
-      </c>
-      <c r="F19">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2103</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K19">
         <v>0.6976744186046512</v>
@@ -1455,16 +1401,16 @@
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.6875</v>
+        <v>0.675</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1476,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.675</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1502,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L22">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="M22">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1528,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1554,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.58</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1580,47 +1526,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.5782312925170068</v>
+        <v>0.58</v>
       </c>
       <c r="L25">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.574468085106383</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1632,47 +1578,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5630252100840336</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.550561797752809</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1684,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.40625</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1710,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.3972602739726027</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1736,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.3461538461538461</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1762,33 +1708,33 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.01320339515875511</v>
+        <v>0.0119309262166405</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N32">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="O32">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>3139</v>
+        <v>3147</v>
       </c>
     </row>
   </sheetData>
